--- a/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B931F25F-BF92-46E0-B4D7-2D3D995A4457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3461293-4175-4196-945F-C7FCE6541881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6BF7DE54-4F1F-4567-8A95-7A1124CC96FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B417D2C-7869-4675-80D4-961A22724799}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,45%</t>
@@ -119,13 +119,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>97,96%</t>
   </si>
   <si>
     <t>99,55%</t>
@@ -134,7 +134,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,14%</t>
+    <t>99,08%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -149,7 +149,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -161,7 +161,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,56%</t>
+    <t>99,57%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -191,31 +191,31 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,15%</t>
+    <t>99,03%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,47%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -224,7 +224,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,09%</t>
@@ -239,13 +239,13 @@
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,68%</t>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33332CD-5DB9-4793-8901-FD3D7C7CFB25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A541AD6F-60A4-4ED9-AE63-4332F6C38F55}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3461293-4175-4196-945F-C7FCE6541881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F949F41-DDC7-47A3-A5D6-2C5C4C287C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B417D2C-7869-4675-80D4-961A22724799}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E5CA6C-EF53-4D43-9CB0-BC7F2A8CCBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -137,7 +137,7 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,16%</t>
@@ -164,7 +164,7 @@
     <t>99,57%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A541AD6F-60A4-4ED9-AE63-4332F6C38F55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAB7AA6-C9F2-4243-8AC2-572A91F398EE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F949F41-DDC7-47A3-A5D6-2C5C4C287C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7828A9-7FD5-49D0-8620-986F13F688D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E5CA6C-EF53-4D43-9CB0-BC7F2A8CCBF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{29426F61-5547-40BF-B05C-AE1B02B16E86}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>0,45%</t>
@@ -119,13 +119,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>97,96%</t>
+    <t>97,83%</t>
   </si>
   <si>
     <t>99,55%</t>
@@ -134,7 +134,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,14%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -149,7 +149,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,43%</t>
+    <t>0,44%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -161,7 +161,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>99,56%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -191,31 +191,31 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,03%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,51%</t>
+    <t>99,47%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -224,7 +224,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,09%</t>
@@ -239,13 +239,13 @@
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,66%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAB7AA6-C9F2-4243-8AC2-572A91F398EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18E04A4-28B3-4AE0-AE9A-907C8E2A6A18}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7828A9-7FD5-49D0-8620-986F13F688D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1191ACAD-5EB5-45F8-A4A3-B35B7A1AEE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{29426F61-5547-40BF-B05C-AE1B02B16E86}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF486E64-9CE7-44C3-B7D9-9A7E3F4C3084}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
   <si>
     <t>Población que, necesitando medicamentos, no los pudo comprar por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,52 +65,58 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,86%</t>
+    <t>99,63%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,45%</t>
@@ -119,13 +125,10 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>99,55%</t>
@@ -134,37 +137,13 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -188,37 +167,28 @@
     <t>Capitales</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -233,16 +203,13 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,21%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -254,7 +221,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,77%</t>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -672,8 +639,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18E04A4-28B3-4AE0-AE9A-907C8E2A6A18}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299523BE-14E6-4BF6-B543-78503C4540C4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -790,10 +757,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -811,79 +778,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="D5" s="7">
-        <v>53394</v>
+        <v>265835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="I5" s="7">
-        <v>48681</v>
+        <v>299287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>151</v>
+        <v>809</v>
       </c>
       <c r="N5" s="7">
-        <v>102075</v>
+        <v>565122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -892,99 +859,99 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D6" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="I6" s="7">
-        <v>48681</v>
+        <v>299287</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>151</v>
+        <v>810</v>
       </c>
       <c r="N6" s="7">
-        <v>102075</v>
+        <v>565886</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>813</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>813</v>
+        <v>767</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>27</v>
@@ -993,52 +960,52 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>233</v>
+        <v>426</v>
       </c>
       <c r="D8" s="7">
-        <v>217696</v>
+        <v>658389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>425</v>
+        <v>704</v>
       </c>
       <c r="I8" s="7">
-        <v>271237</v>
+        <v>446588</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>658</v>
+        <v>1130</v>
       </c>
       <c r="N8" s="7">
-        <v>488933</v>
+        <v>1104977</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1047,54 +1014,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D9" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>271237</v>
+        <v>447355</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>659</v>
+        <v>1131</v>
       </c>
       <c r="N9" s="7">
-        <v>489746</v>
+        <v>1105744</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1106,94 +1073,94 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>795</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D11" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>704</v>
+        <v>489</v>
       </c>
       <c r="I11" s="7">
-        <v>496507</v>
+        <v>329390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>1130</v>
+        <v>803</v>
       </c>
       <c r="N11" s="7">
-        <v>983187</v>
+        <v>660227</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1202,49 +1169,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D12" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>705</v>
+        <v>489</v>
       </c>
       <c r="I12" s="7">
-        <v>497302</v>
+        <v>329390</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1131</v>
+        <v>803</v>
       </c>
       <c r="N12" s="7">
-        <v>983982</v>
+        <v>660227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1261,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1246</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
@@ -1303,52 +1270,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D14" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
+        <v>664</v>
+      </c>
+      <c r="I14" s="7">
+        <v>516696</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>489</v>
-      </c>
-      <c r="I14" s="7">
-        <v>355020</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1090</v>
+      </c>
+      <c r="N14" s="7">
+        <v>924649</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>803</v>
-      </c>
-      <c r="N14" s="7">
-        <v>691147</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,153 +1324,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D15" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>489</v>
+        <v>666</v>
       </c>
       <c r="I15" s="7">
-        <v>355020</v>
+        <v>517942</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>803</v>
+        <v>1092</v>
       </c>
       <c r="N15" s="7">
-        <v>691147</v>
+        <v>925895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1360</v>
+        <v>2013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>1360</v>
+        <v>2778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>426</v>
+        <v>1459</v>
       </c>
       <c r="D17" s="7">
-        <v>423821</v>
+        <v>1663014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>664</v>
+        <v>2373</v>
       </c>
       <c r="I17" s="7">
-        <v>511088</v>
+        <v>1591961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
-        <v>1090</v>
+        <v>3832</v>
       </c>
       <c r="N17" s="7">
-        <v>934909</v>
+        <v>3254974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,217 +1479,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D18" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>666</v>
+        <v>2376</v>
       </c>
       <c r="I18" s="7">
-        <v>512448</v>
+        <v>1593974</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>1092</v>
+        <v>3836</v>
       </c>
       <c r="N18" s="7">
-        <v>936269</v>
+        <v>3257752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>813</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2156</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2969</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1459</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1517718</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2373</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1682531</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3832</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3200249</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2376</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3836</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
